--- a/biology/Zoologie/Chanodichthys/Chanodichthys.xlsx
+++ b/biology/Zoologie/Chanodichthys/Chanodichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chanodichthys est un genre de poissons téléostéens de la famille des Cyprinidae et de l'ordre des Cypriniformes. Chanodichthys est un genre de poissons cyprinidés d'eau douce, composée de cinq espèces de l'Asie orientale (Chine, Mongolie, Russie et Vietnam). Le nom est dérivé du mot grec « Chanos », qui signifie « abîme », la bouche ouverte, immensité, et du grec « ichthys », qui signifie « poisson ».
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (23 août 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (23 août 2015) :
 Chanodichthys abramoides (Dybowski, 1872)
 Chanodichthys dabryi (Bleeker, 1871)
 Chanodichthys erythropterus (Basilewsky, 1855)
